--- a/GBDS FEBRUARY FILES 2026/PURCHASES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/PURCHASES - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E83847-988F-40D3-83B4-7DFF87B62A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4FA57D-8DCE-4081-9572-FD6FD5293B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD589464-55C8-496E-9E4C-BFC8F697DF68}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:B35"/>
     </sheetView>
   </sheetViews>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423D5057-7111-4BE4-94EA-57775A7107A8}">
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2349,9 @@
       <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19">
+        <v>46297</v>
+      </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
       </c>
@@ -2357,22 +2359,27 @@
       <c r="F7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="20">
+        <v>518368174</v>
+      </c>
       <c r="H7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <f>1397196-56255.04</f>
+        <v>1340940.96</v>
+      </c>
       <c r="K7" s="21">
         <f>M7*12</f>
-        <v>0</v>
+        <v>143672.2457142857</v>
       </c>
       <c r="L7" s="27">
         <f>I7-K7</f>
-        <v>0</v>
+        <v>1197268.7142857143</v>
       </c>
       <c r="M7" s="33">
         <f>I7/112</f>
-        <v>0</v>
+        <v>11972.687142857143</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -2386,7 +2393,9 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>46328</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2394,22 +2403,27 @@
       <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>518371863</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f>1377504-55029.33</f>
+        <v>1322474.67</v>
+      </c>
       <c r="K8" s="21">
         <f>M8*12</f>
-        <v>0</v>
+        <v>141693.71464285714</v>
       </c>
       <c r="L8" s="27">
         <f>I8-K8</f>
-        <v>0</v>
+        <v>1180780.9553571427</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ref="M8:M26" si="0">I8/112</f>
-        <v>0</v>
+        <v>11807.809553571427</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3105,19 +3119,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>0</v>
+        <v>2663415.63</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>0</v>
+        <v>285365.96035714285</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>0</v>
+        <v>2378049.6696428573</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>0</v>
+        <v>23780.49669642857</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
